--- a/KBS/report/Login-Run1.xlsx
+++ b/KBS/report/Login-Run1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t xml:space="preserve">Step No</t>
   </si>
@@ -38,16 +38,28 @@
     <t xml:space="preserve">Element with ID :PageContent_Login1_btnSubmit is found and clicked successfully..</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify Login is successfull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pending Authorization task is clicked successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with ID :hylLogout is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify Logout is successfull</t>
+    <t xml:space="preserve">Login is Successful for Userid: 4141201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with ID :a_3_1_28 is found and clicked successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with ID :a_3_2_40 is found and clicked successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with ID :lblSearchOptionTitle is found and clicked successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending LCI Authorization is clicked successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Application is clicked successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element with text :Logout is found and clicked successfully..</t>
   </si>
   <si>
     <t xml:space="preserve">The application is closed successfully..</t>
@@ -163,7 +175,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -171,7 +183,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -182,7 +194,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -193,7 +205,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -204,9 +216,42 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
